--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Egf-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Egf-Erbb3.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1243246666666667</v>
+        <v>0.109201</v>
       </c>
       <c r="H2">
-        <v>0.372974</v>
+        <v>0.327603</v>
       </c>
       <c r="I2">
-        <v>0.09963085929726231</v>
+        <v>0.07562717345335074</v>
       </c>
       <c r="J2">
-        <v>0.09963085929726231</v>
+        <v>0.07562717345335074</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1680563333333333</v>
+        <v>0.1311436666666667</v>
       </c>
       <c r="N2">
-        <v>0.504169</v>
+        <v>0.393431</v>
       </c>
       <c r="O2">
-        <v>0.03491515448966758</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="P2">
-        <v>0.03491515448966757</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="Q2">
-        <v>0.02089354762288889</v>
+        <v>0.01432101954366666</v>
       </c>
       <c r="R2">
-        <v>0.188041928606</v>
+        <v>0.128889175893</v>
       </c>
       <c r="S2">
-        <v>0.003478626844302247</v>
+        <v>0.002014285896610216</v>
       </c>
       <c r="T2">
-        <v>0.003478626844302246</v>
+        <v>0.002014285896610216</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1243246666666667</v>
+        <v>0.109201</v>
       </c>
       <c r="H3">
-        <v>0.372974</v>
+        <v>0.327603</v>
       </c>
       <c r="I3">
-        <v>0.09963085929726231</v>
+        <v>0.07562717345335074</v>
       </c>
       <c r="J3">
-        <v>0.09963085929726231</v>
+        <v>0.07562717345335074</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>0.908345</v>
       </c>
       <c r="O3">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="P3">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="Q3">
-        <v>0.03764322978111111</v>
+        <v>0.03306406078166667</v>
       </c>
       <c r="R3">
-        <v>0.33878906803</v>
+        <v>0.297576547035</v>
       </c>
       <c r="S3">
-        <v>0.006267329607508047</v>
+        <v>0.004650539796702362</v>
       </c>
       <c r="T3">
-        <v>0.006267329607508047</v>
+        <v>0.004650539796702362</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1243246666666667</v>
+        <v>0.109201</v>
       </c>
       <c r="H4">
-        <v>0.372974</v>
+        <v>0.327603</v>
       </c>
       <c r="I4">
-        <v>0.09963085929726231</v>
+        <v>0.07562717345335074</v>
       </c>
       <c r="J4">
-        <v>0.09963085929726231</v>
+        <v>0.07562717345335074</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.950355666666666</v>
+        <v>4.009307333333333</v>
       </c>
       <c r="N4">
-        <v>11.851067</v>
+        <v>12.027922</v>
       </c>
       <c r="O4">
-        <v>0.8207205027925185</v>
+        <v>0.8142640654908683</v>
       </c>
       <c r="P4">
-        <v>0.8207205027925184</v>
+        <v>0.8142640654908684</v>
       </c>
       <c r="Q4">
-        <v>0.4911266514731111</v>
+        <v>0.4378203701073333</v>
       </c>
       <c r="R4">
-        <v>4.420139863258</v>
+        <v>3.940383330966</v>
       </c>
       <c r="S4">
-        <v>0.0817690889360998</v>
+        <v>0.06158048971770844</v>
       </c>
       <c r="T4">
-        <v>0.08176908893609978</v>
+        <v>0.06158048971770845</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1243246666666667</v>
+        <v>0.109201</v>
       </c>
       <c r="H5">
-        <v>0.372974</v>
+        <v>0.327603</v>
       </c>
       <c r="I5">
-        <v>0.09963085929726231</v>
+        <v>0.07562717345335074</v>
       </c>
       <c r="J5">
-        <v>0.09963085929726231</v>
+        <v>0.07562717345335074</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3920839999999999</v>
+        <v>0.480609</v>
       </c>
       <c r="N5">
-        <v>1.176252</v>
+        <v>1.441827</v>
       </c>
       <c r="O5">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="P5">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="Q5">
-        <v>0.04874571260533333</v>
+        <v>0.052482983409</v>
       </c>
       <c r="R5">
-        <v>0.438711413448</v>
+        <v>0.472346850681</v>
       </c>
       <c r="S5">
-        <v>0.008115813909352234</v>
+        <v>0.007381858042329707</v>
       </c>
       <c r="T5">
-        <v>0.008115813909352234</v>
+        <v>0.007381858042329707</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7328223333333335</v>
+        <v>0.7328223333333334</v>
       </c>
       <c r="H6">
         <v>2.198467</v>
       </c>
       <c r="I6">
-        <v>0.5872665557027418</v>
+        <v>0.5075162472274908</v>
       </c>
       <c r="J6">
-        <v>0.5872665557027418</v>
+        <v>0.5075162472274908</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1680563333333333</v>
+        <v>0.1311436666666667</v>
       </c>
       <c r="N6">
-        <v>0.504169</v>
+        <v>0.393431</v>
       </c>
       <c r="O6">
-        <v>0.03491515448966758</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="P6">
-        <v>0.03491515448966757</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="Q6">
-        <v>0.1231554343247778</v>
+        <v>0.09610500780855555</v>
       </c>
       <c r="R6">
-        <v>1.108398908923</v>
+        <v>0.864945070277</v>
       </c>
       <c r="S6">
-        <v>0.0205045025189762</v>
+        <v>0.01351740085488525</v>
       </c>
       <c r="T6">
-        <v>0.0205045025189762</v>
+        <v>0.01351740085488525</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7328223333333335</v>
+        <v>0.7328223333333334</v>
       </c>
       <c r="H7">
         <v>2.198467</v>
       </c>
       <c r="I7">
-        <v>0.5872665557027418</v>
+        <v>0.5075162472274908</v>
       </c>
       <c r="J7">
-        <v>0.5872665557027418</v>
+        <v>0.5075162472274908</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>0.908345</v>
       </c>
       <c r="O7">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="P7">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="Q7">
-        <v>0.2218851674572223</v>
+        <v>0.2218851674572222</v>
       </c>
       <c r="R7">
         <v>1.996966507115</v>
       </c>
       <c r="S7">
-        <v>0.03694229978558665</v>
+        <v>0.03120868330032648</v>
       </c>
       <c r="T7">
-        <v>0.03694229978558665</v>
+        <v>0.03120868330032648</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7328223333333335</v>
+        <v>0.7328223333333334</v>
       </c>
       <c r="H8">
         <v>2.198467</v>
       </c>
       <c r="I8">
-        <v>0.5872665557027418</v>
+        <v>0.5075162472274908</v>
       </c>
       <c r="J8">
-        <v>0.5872665557027418</v>
+        <v>0.5075162472274908</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.950355666666666</v>
+        <v>4.009307333333333</v>
       </c>
       <c r="N8">
-        <v>11.851067</v>
+        <v>12.027922</v>
       </c>
       <c r="O8">
-        <v>0.8207205027925185</v>
+        <v>0.8142640654908683</v>
       </c>
       <c r="P8">
-        <v>0.8207205027925184</v>
+        <v>0.8142640654908684</v>
       </c>
       <c r="Q8">
-        <v>2.894908857143223</v>
+        <v>2.938109955063778</v>
       </c>
       <c r="R8">
-        <v>26.054179714289</v>
+        <v>26.442989595574</v>
       </c>
       <c r="S8">
-        <v>0.4819817028695848</v>
+        <v>0.4132522427701252</v>
       </c>
       <c r="T8">
-        <v>0.4819817028695847</v>
+        <v>0.4132522427701253</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7328223333333335</v>
+        <v>0.7328223333333334</v>
       </c>
       <c r="H9">
         <v>2.198467</v>
       </c>
       <c r="I9">
-        <v>0.5872665557027418</v>
+        <v>0.5075162472274908</v>
       </c>
       <c r="J9">
-        <v>0.5872665557027418</v>
+        <v>0.5075162472274908</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3920839999999999</v>
+        <v>0.480609</v>
       </c>
       <c r="N9">
-        <v>1.176252</v>
+        <v>1.441827</v>
       </c>
       <c r="O9">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="P9">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="Q9">
-        <v>0.2873279117426666</v>
+        <v>0.352201008801</v>
       </c>
       <c r="R9">
-        <v>2.585951205684</v>
+        <v>3.169809079209</v>
       </c>
       <c r="S9">
-        <v>0.04783805052859416</v>
+        <v>0.04953792030215372</v>
       </c>
       <c r="T9">
-        <v>0.04783805052859416</v>
+        <v>0.04953792030215372</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1693576666666667</v>
+        <v>0.498848</v>
       </c>
       <c r="H10">
-        <v>0.508073</v>
+        <v>1.496544</v>
       </c>
       <c r="I10">
-        <v>0.1357192447080439</v>
+        <v>0.3454772778899196</v>
       </c>
       <c r="J10">
-        <v>0.1357192447080439</v>
+        <v>0.3454772778899197</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1680563333333333</v>
+        <v>0.1311436666666667</v>
       </c>
       <c r="N10">
-        <v>0.504169</v>
+        <v>0.393431</v>
       </c>
       <c r="O10">
-        <v>0.03491515448966758</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="P10">
-        <v>0.03491515448966757</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="Q10">
-        <v>0.02846162848188889</v>
+        <v>0.06542075582933334</v>
       </c>
       <c r="R10">
-        <v>0.256154656337</v>
+        <v>0.5887868024639999</v>
       </c>
       <c r="S10">
-        <v>0.004738658396202351</v>
+        <v>0.009201586898949767</v>
       </c>
       <c r="T10">
-        <v>0.00473865839620235</v>
+        <v>0.009201586898949768</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1693576666666667</v>
+        <v>0.498848</v>
       </c>
       <c r="H11">
-        <v>0.508073</v>
+        <v>1.496544</v>
       </c>
       <c r="I11">
-        <v>0.1357192447080439</v>
+        <v>0.3454772778899196</v>
       </c>
       <c r="J11">
-        <v>0.1357192447080439</v>
+        <v>0.3454772778899197</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>0.908345</v>
       </c>
       <c r="O11">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="P11">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="Q11">
-        <v>0.05127839657611111</v>
+        <v>0.1510420288533333</v>
       </c>
       <c r="R11">
-        <v>0.461505569185</v>
+        <v>1.35937825968</v>
       </c>
       <c r="S11">
-        <v>0.008537487748946134</v>
+        <v>0.02124442520219944</v>
       </c>
       <c r="T11">
-        <v>0.008537487748946134</v>
+        <v>0.02124442520219944</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1693576666666667</v>
+        <v>0.498848</v>
       </c>
       <c r="H12">
-        <v>0.508073</v>
+        <v>1.496544</v>
       </c>
       <c r="I12">
-        <v>0.1357192447080439</v>
+        <v>0.3454772778899196</v>
       </c>
       <c r="J12">
-        <v>0.1357192447080439</v>
+        <v>0.3454772778899197</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.950355666666666</v>
+        <v>4.009307333333333</v>
       </c>
       <c r="N12">
-        <v>11.851067</v>
+        <v>12.027922</v>
       </c>
       <c r="O12">
-        <v>0.8207205027925185</v>
+        <v>0.8142640654908683</v>
       </c>
       <c r="P12">
-        <v>0.8207205027925184</v>
+        <v>0.8142640654908684</v>
       </c>
       <c r="Q12">
-        <v>0.669023018210111</v>
+        <v>2.000034944618667</v>
       </c>
       <c r="R12">
-        <v>6.021207163890999</v>
+        <v>18.000314501568</v>
       </c>
       <c r="S12">
-        <v>0.1113875667554066</v>
+        <v>0.2813097328293644</v>
       </c>
       <c r="T12">
-        <v>0.1113875667554066</v>
+        <v>0.2813097328293645</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1693576666666667</v>
+        <v>0.498848</v>
       </c>
       <c r="H13">
-        <v>0.508073</v>
+        <v>1.496544</v>
       </c>
       <c r="I13">
-        <v>0.1357192447080439</v>
+        <v>0.3454772778899196</v>
       </c>
       <c r="J13">
-        <v>0.1357192447080439</v>
+        <v>0.3454772778899197</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3920839999999999</v>
+        <v>0.480609</v>
       </c>
       <c r="N13">
-        <v>1.176252</v>
+        <v>1.441827</v>
       </c>
       <c r="O13">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="P13">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="Q13">
-        <v>0.06640243137733332</v>
+        <v>0.239750838432</v>
       </c>
       <c r="R13">
-        <v>0.5976218823959999</v>
+        <v>2.157757545888</v>
       </c>
       <c r="S13">
-        <v>0.01105553180748877</v>
+        <v>0.03372153295940596</v>
       </c>
       <c r="T13">
-        <v>0.01105553180748877</v>
+        <v>0.03372153295940596</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2213483333333333</v>
+        <v>0.1030673333333333</v>
       </c>
       <c r="H14">
-        <v>0.664045</v>
+        <v>0.309202</v>
       </c>
       <c r="I14">
-        <v>0.1773833402919521</v>
+        <v>0.07137930142923891</v>
       </c>
       <c r="J14">
-        <v>0.1773833402919521</v>
+        <v>0.07137930142923891</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.1680563333333333</v>
+        <v>0.1311436666666667</v>
       </c>
       <c r="N14">
-        <v>0.504169</v>
+        <v>0.393431</v>
       </c>
       <c r="O14">
-        <v>0.03491515448966758</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="P14">
-        <v>0.03491515448966757</v>
+        <v>0.02663441993971509</v>
       </c>
       <c r="Q14">
-        <v>0.03719898928944445</v>
+        <v>0.01351662800688889</v>
       </c>
       <c r="R14">
-        <v>0.334790903605</v>
+        <v>0.121649652062</v>
       </c>
       <c r="S14">
-        <v>0.006193366730186785</v>
+        <v>0.001901146289269855</v>
       </c>
       <c r="T14">
-        <v>0.006193366730186782</v>
+        <v>0.001901146289269855</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2213483333333333</v>
+        <v>0.1030673333333333</v>
       </c>
       <c r="H15">
-        <v>0.664045</v>
+        <v>0.309202</v>
       </c>
       <c r="I15">
-        <v>0.1773833402919521</v>
+        <v>0.07137930142923891</v>
       </c>
       <c r="J15">
-        <v>0.1773833402919521</v>
+        <v>0.07137930142923891</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>0.908345</v>
       </c>
       <c r="O15">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="P15">
-        <v>0.06290550590162643</v>
+        <v>0.06149297381279183</v>
       </c>
       <c r="Q15">
-        <v>0.06702021728055556</v>
+        <v>0.03120689896555556</v>
       </c>
       <c r="R15">
-        <v>0.603181955525</v>
+        <v>0.28086209069</v>
       </c>
       <c r="S15">
-        <v>0.0111583887595856</v>
+        <v>0.004389325513563564</v>
       </c>
       <c r="T15">
-        <v>0.0111583887595856</v>
+        <v>0.004389325513563564</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2213483333333333</v>
+        <v>0.1030673333333333</v>
       </c>
       <c r="H16">
-        <v>0.664045</v>
+        <v>0.309202</v>
       </c>
       <c r="I16">
-        <v>0.1773833402919521</v>
+        <v>0.07137930142923891</v>
       </c>
       <c r="J16">
-        <v>0.1773833402919521</v>
+        <v>0.07137930142923891</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.950355666666666</v>
+        <v>4.009307333333333</v>
       </c>
       <c r="N16">
-        <v>11.851067</v>
+        <v>12.027922</v>
       </c>
       <c r="O16">
-        <v>0.8207205027925185</v>
+        <v>0.8142640654908683</v>
       </c>
       <c r="P16">
-        <v>0.8207205027925184</v>
+        <v>0.8142640654908684</v>
       </c>
       <c r="Q16">
-        <v>0.8744046428905555</v>
+        <v>0.4132286153604444</v>
       </c>
       <c r="R16">
-        <v>7.869641786014999</v>
+        <v>3.719057538244</v>
       </c>
       <c r="S16">
-        <v>0.1455821442314273</v>
+        <v>0.05812160017367022</v>
       </c>
       <c r="T16">
-        <v>0.1455821442314273</v>
+        <v>0.05812160017367023</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2213483333333333</v>
+        <v>0.1030673333333333</v>
       </c>
       <c r="H17">
-        <v>0.664045</v>
+        <v>0.309202</v>
       </c>
       <c r="I17">
-        <v>0.1773833402919521</v>
+        <v>0.07137930142923891</v>
       </c>
       <c r="J17">
-        <v>0.1773833402919521</v>
+        <v>0.07137930142923891</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3920839999999999</v>
+        <v>0.480609</v>
       </c>
       <c r="N17">
-        <v>1.176252</v>
+        <v>1.441827</v>
       </c>
       <c r="O17">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="P17">
-        <v>0.08145883681618755</v>
+        <v>0.09760854075662465</v>
       </c>
       <c r="Q17">
-        <v>0.08678713992666666</v>
+        <v>0.049535088006</v>
       </c>
       <c r="R17">
-        <v>0.7810842593399999</v>
+        <v>0.445815792054</v>
       </c>
       <c r="S17">
-        <v>0.0144494405707524</v>
+        <v>0.006967229452735263</v>
       </c>
       <c r="T17">
-        <v>0.01444944057075239</v>
+        <v>0.006967229452735263</v>
       </c>
     </row>
   </sheetData>
